--- a/assets/spreadsheets/LEIAUTE PADRAO.xlsx
+++ b/assets/spreadsheets/LEIAUTE PADRAO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\servidor\CONTROLES\Automações\Integração Contai\PLANILHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\codigos\Python\Códigos\Integra Contai\Integra Contai v1.3\assets\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C9CF8A-E6B5-4BE5-8B86-6B8F47761495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>CNPJ</t>
   </si>
@@ -128,9 +121,6 @@
   </si>
   <si>
     <t>https://solucoes.receita.fazenda.gov.br/Servicos/cnpjreva/cnpjreva_solicitacao.asp</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1_pMuA__XOsg0a5OzqmH1ZmZAgkiJGLwW?usp=share_link</t>
   </si>
   <si>
     <t>https://dfe-portal.svrs.rs.gov.br/NFE/CCC</t>
@@ -163,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,11 +521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +550,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -620,7 +610,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,9 +620,7 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -691,7 +679,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -699,7 +687,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -707,7 +695,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -740,7 +728,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,28 +802,28 @@
         <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1"/>
-    <hyperlink ref="C11" r:id="rId2"/>
-    <hyperlink ref="C14" r:id="rId3"/>
-    <hyperlink ref="C15" r:id="rId4"/>
-    <hyperlink ref="C24" r:id="rId5"/>
-    <hyperlink ref="C26" r:id="rId6"/>
-    <hyperlink ref="C29" r:id="rId7"/>
-    <hyperlink ref="C32" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C33" r:id="rId9" xr:uid="{3FDFE842-2674-4228-9706-AF2CB5B8A087}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
